--- a/Code/Results/Cases/Case_5_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_207/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.998021246192633</v>
+        <v>1.04563514837453</v>
       </c>
       <c r="D2">
-        <v>1.018847679150239</v>
+        <v>1.048989521873806</v>
       </c>
       <c r="E2">
-        <v>1.003956376406818</v>
+        <v>1.043272374191925</v>
       </c>
       <c r="F2">
-        <v>1.018709411282452</v>
+        <v>1.05726675085957</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046081616010043</v>
+        <v>1.038945101223042</v>
       </c>
       <c r="J2">
-        <v>1.020261302955288</v>
+        <v>1.05069383003779</v>
       </c>
       <c r="K2">
-        <v>1.030050535101954</v>
+        <v>1.051747829631309</v>
       </c>
       <c r="L2">
-        <v>1.015360866438861</v>
+        <v>1.046046707304126</v>
       </c>
       <c r="M2">
-        <v>1.029914105396652</v>
+        <v>1.060002189996293</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006159466587861</v>
+        <v>1.047219679848313</v>
       </c>
       <c r="D3">
-        <v>1.025108429825665</v>
+        <v>1.050208786366259</v>
       </c>
       <c r="E3">
-        <v>1.010784838605286</v>
+        <v>1.044642879433515</v>
       </c>
       <c r="F3">
-        <v>1.025940086055577</v>
+        <v>1.058716748892199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048765297839418</v>
+        <v>1.039344011464254</v>
       </c>
       <c r="J3">
-        <v>1.026483615178827</v>
+        <v>1.051922970927945</v>
       </c>
       <c r="K3">
-        <v>1.035429815246159</v>
+        <v>1.052778198188464</v>
       </c>
       <c r="L3">
-        <v>1.021281560384174</v>
+        <v>1.047226751078704</v>
       </c>
       <c r="M3">
-        <v>1.036251477726294</v>
+        <v>1.061264374463785</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011256166779456</v>
+        <v>1.048243119561685</v>
       </c>
       <c r="D4">
-        <v>1.029031315110283</v>
+        <v>1.050995869573815</v>
       </c>
       <c r="E4">
-        <v>1.015067119692061</v>
+        <v>1.045528195622349</v>
       </c>
       <c r="F4">
-        <v>1.030474890246529</v>
+        <v>1.059653462628366</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050429790837301</v>
+        <v>1.039599608590579</v>
       </c>
       <c r="J4">
-        <v>1.030376256490922</v>
+        <v>1.0527161008738</v>
       </c>
       <c r="K4">
-        <v>1.038791542501537</v>
+        <v>1.053442493544437</v>
       </c>
       <c r="L4">
-        <v>1.024987036345055</v>
+        <v>1.04798830091633</v>
       </c>
       <c r="M4">
-        <v>1.040218913424489</v>
+        <v>1.062079045932165</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013360744756762</v>
+        <v>1.048672938301473</v>
       </c>
       <c r="D5">
-        <v>1.030651529161662</v>
+        <v>1.05132631978107</v>
       </c>
       <c r="E5">
-        <v>1.016836691951496</v>
+        <v>1.04590003263182</v>
       </c>
       <c r="F5">
-        <v>1.032348873070695</v>
+        <v>1.060046897896429</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051113138106953</v>
+        <v>1.039706459944936</v>
       </c>
       <c r="J5">
-        <v>1.031982556788912</v>
+        <v>1.053049011617624</v>
       </c>
       <c r="K5">
-        <v>1.040177883379932</v>
+        <v>1.053721189366414</v>
       </c>
       <c r="L5">
-        <v>1.026516457963785</v>
+        <v>1.04830798026662</v>
       </c>
       <c r="M5">
-        <v>1.041856726159346</v>
+        <v>1.06242105085341</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013711946988095</v>
+        <v>1.048745081507456</v>
       </c>
       <c r="D6">
-        <v>1.030921919127787</v>
+        <v>1.051381778230288</v>
       </c>
       <c r="E6">
-        <v>1.017132062966232</v>
+        <v>1.045962445395373</v>
       </c>
       <c r="F6">
-        <v>1.032661675239864</v>
+        <v>1.060112936565062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051226936056479</v>
+        <v>1.039724365552408</v>
       </c>
       <c r="J6">
-        <v>1.03225054260145</v>
+        <v>1.053104878445934</v>
       </c>
       <c r="K6">
-        <v>1.040409119883607</v>
+        <v>1.053767950134936</v>
       </c>
       <c r="L6">
-        <v>1.026771638387578</v>
+        <v>1.048361628107236</v>
       </c>
       <c r="M6">
-        <v>1.042130006743825</v>
+        <v>1.062478446863439</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011284434789929</v>
+        <v>1.048248864519481</v>
       </c>
       <c r="D7">
-        <v>1.029053076132616</v>
+        <v>1.051000286785134</v>
       </c>
       <c r="E7">
-        <v>1.01509088303566</v>
+        <v>1.045533165492534</v>
       </c>
       <c r="F7">
-        <v>1.030500055478246</v>
+        <v>1.059658721131713</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050438985167183</v>
+        <v>1.039601038704505</v>
       </c>
       <c r="J7">
-        <v>1.030397836201409</v>
+        <v>1.052720551282191</v>
       </c>
       <c r="K7">
-        <v>1.038810170703801</v>
+        <v>1.053446219739639</v>
       </c>
       <c r="L7">
-        <v>1.025007581841586</v>
+        <v>1.047992574350272</v>
       </c>
       <c r="M7">
-        <v>1.04024091395084</v>
+        <v>1.062083617707869</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000808193610521</v>
+        <v>1.046171038684981</v>
       </c>
       <c r="D8">
-        <v>1.020991176822307</v>
+        <v>1.049401967457021</v>
       </c>
       <c r="E8">
-        <v>1.00629348995502</v>
+        <v>1.043735856296065</v>
       </c>
       <c r="F8">
-        <v>1.021184120285144</v>
+        <v>1.057757106253327</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047004022400284</v>
+        <v>1.039080439140628</v>
       </c>
       <c r="J8">
-        <v>1.022392977837564</v>
+        <v>1.051109685113581</v>
       </c>
       <c r="K8">
-        <v>1.031894122539401</v>
+        <v>1.052096552556713</v>
       </c>
       <c r="L8">
-        <v>1.017388881462817</v>
+        <v>1.046445930423233</v>
       </c>
       <c r="M8">
-        <v>1.032084585745078</v>
+        <v>1.060429179023087</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9809276718394472</v>
+        <v>1.042494985065504</v>
       </c>
       <c r="D9">
-        <v>1.005715694158153</v>
+        <v>1.046570976444088</v>
       </c>
       <c r="E9">
-        <v>0.9896523877219265</v>
+        <v>1.040557007290882</v>
       </c>
       <c r="F9">
-        <v>1.003564931482071</v>
+        <v>1.054394144293653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040357320019684</v>
+        <v>1.038143620304707</v>
       </c>
       <c r="J9">
-        <v>1.00717237840717</v>
+        <v>1.048253913603922</v>
       </c>
       <c r="K9">
-        <v>1.0187167139116</v>
+        <v>1.049699451605135</v>
       </c>
       <c r="L9">
-        <v>1.002915608749157</v>
+        <v>1.04370479083482</v>
       </c>
       <c r="M9">
-        <v>1.016600433740906</v>
+        <v>1.057497862877584</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9665210245970425</v>
+        <v>1.040033825574569</v>
       </c>
       <c r="D10">
-        <v>0.9946737318953052</v>
+        <v>1.044673467546509</v>
       </c>
       <c r="E10">
-        <v>0.9776392588546622</v>
+        <v>1.038429402148725</v>
       </c>
       <c r="F10">
-        <v>0.9908483519518114</v>
+        <v>1.052143572707678</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035459458541977</v>
+        <v>1.037505821568434</v>
       </c>
       <c r="J10">
-        <v>0.9961289218030396</v>
+        <v>1.046338036825168</v>
       </c>
       <c r="K10">
-        <v>1.009139824314082</v>
+        <v>1.048088360404429</v>
       </c>
       <c r="L10">
-        <v>0.9924243311353194</v>
+        <v>1.041866343152299</v>
       </c>
       <c r="M10">
-        <v>1.005384831834057</v>
+        <v>1.055532466712602</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9599559301516969</v>
+        <v>1.038965501575169</v>
       </c>
       <c r="D11">
-        <v>0.989651537729117</v>
+        <v>1.043849320354409</v>
       </c>
       <c r="E11">
-        <v>0.9721783484552269</v>
+        <v>1.037506035510072</v>
       </c>
       <c r="F11">
-        <v>0.9850684831454344</v>
+        <v>1.051166903744555</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033209850681884</v>
+        <v>1.037226465435273</v>
       </c>
       <c r="J11">
-        <v>0.9910949794423899</v>
+        <v>1.045505486591482</v>
       </c>
       <c r="K11">
-        <v>1.004771285698265</v>
+        <v>1.047387567017713</v>
       </c>
       <c r="L11">
-        <v>0.9876447303881873</v>
+        <v>1.0410675649056</v>
       </c>
       <c r="M11">
-        <v>1.000277588561038</v>
+        <v>1.054678676948245</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9574628441208525</v>
+        <v>1.038568272322506</v>
       </c>
       <c r="D12">
-        <v>0.9877461121436641</v>
+        <v>1.043542809940865</v>
       </c>
       <c r="E12">
-        <v>0.970106846406469</v>
+        <v>1.037162731520866</v>
       </c>
       <c r="F12">
-        <v>0.9828761312040671</v>
+        <v>1.050803792036693</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032353074265606</v>
+        <v>1.037122218179207</v>
       </c>
       <c r="J12">
-        <v>0.9891833067807316</v>
+        <v>1.045195786394257</v>
       </c>
       <c r="K12">
-        <v>1.003111904033358</v>
+        <v>1.047126776011954</v>
       </c>
       <c r="L12">
-        <v>0.985830070443205</v>
+        <v>1.040770446352184</v>
       </c>
       <c r="M12">
-        <v>0.9983389188890677</v>
+        <v>1.054361118131176</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9580001825180994</v>
+        <v>1.038653497913347</v>
       </c>
       <c r="D13">
-        <v>0.9881567072268556</v>
+        <v>1.043608575034437</v>
       </c>
       <c r="E13">
-        <v>0.970553213380578</v>
+        <v>1.037236386223023</v>
       </c>
       <c r="F13">
-        <v>0.9833485321798889</v>
+        <v>1.05088169596752</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032537846046968</v>
+        <v>1.037144601434201</v>
       </c>
       <c r="J13">
-        <v>0.9895953309914626</v>
+        <v>1.045262238823523</v>
       </c>
       <c r="K13">
-        <v>1.003469568706062</v>
+        <v>1.04718273864014</v>
       </c>
       <c r="L13">
-        <v>0.9862211657765635</v>
+        <v>1.040834198284154</v>
       </c>
       <c r="M13">
-        <v>0.9987567228119596</v>
+        <v>1.054429254868613</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9597509972602396</v>
+        <v>1.038932674834493</v>
       </c>
       <c r="D14">
-        <v>0.9894948735757592</v>
+        <v>1.043823992016807</v>
       </c>
       <c r="E14">
-        <v>0.9720080224111477</v>
+        <v>1.037477664567828</v>
       </c>
       <c r="F14">
-        <v>0.9848882174209734</v>
+        <v>1.051136895672603</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03313947268919</v>
+        <v>1.037217858176168</v>
       </c>
       <c r="J14">
-        <v>0.990937838707082</v>
+        <v>1.045479895988771</v>
       </c>
       <c r="K14">
-        <v>1.004634891152901</v>
+        <v>1.047366019891234</v>
       </c>
       <c r="L14">
-        <v>0.9874955553811775</v>
+        <v>1.041043013543421</v>
       </c>
       <c r="M14">
-        <v>1.000118211256428</v>
+        <v>1.054652436122184</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9608223320760511</v>
+        <v>1.039104630779596</v>
       </c>
       <c r="D15">
-        <v>0.9903139449816858</v>
+        <v>1.043956666216998</v>
       </c>
       <c r="E15">
-        <v>0.9728985355613344</v>
+        <v>1.037626280846235</v>
       </c>
       <c r="F15">
-        <v>0.9858307039197521</v>
+        <v>1.05129408817739</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033507290100007</v>
+        <v>1.037262930106415</v>
       </c>
       <c r="J15">
-        <v>0.9917593283151358</v>
+        <v>1.045613941330965</v>
       </c>
       <c r="K15">
-        <v>1.005347909403189</v>
+        <v>1.047478881012615</v>
       </c>
       <c r="L15">
-        <v>0.9882754197164451</v>
+        <v>1.041171616042078</v>
       </c>
       <c r="M15">
-        <v>1.000951427516305</v>
+        <v>1.054789889110964</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9669493979495579</v>
+        <v>1.040104670405722</v>
       </c>
       <c r="D16">
-        <v>0.9950016535476059</v>
+        <v>1.044728109860073</v>
       </c>
       <c r="E16">
-        <v>0.977995881881694</v>
+        <v>1.038490637943634</v>
       </c>
       <c r="F16">
-        <v>0.9912258228257448</v>
+        <v>1.052208344775701</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035605894567884</v>
+        <v>1.037524294117334</v>
       </c>
       <c r="J16">
-        <v>0.9964573717235531</v>
+        <v>1.046393227265234</v>
       </c>
       <c r="K16">
-        <v>1.00942479991239</v>
+        <v>1.048134802124072</v>
       </c>
       <c r="L16">
-        <v>0.9927362427641425</v>
+        <v>1.041919297451355</v>
       </c>
       <c r="M16">
-        <v>1.005718176134714</v>
+        <v>1.055589071040923</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9707016558083429</v>
+        <v>1.040731257661335</v>
       </c>
       <c r="D17">
-        <v>0.9978751360419528</v>
+        <v>1.045211337668915</v>
       </c>
       <c r="E17">
-        <v>0.9811211951746083</v>
+        <v>1.039032257821976</v>
       </c>
       <c r="F17">
-        <v>0.9945339327387407</v>
+        <v>1.052781249816369</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036886606644036</v>
+        <v>1.037687385712982</v>
       </c>
       <c r="J17">
-        <v>0.9993342243625355</v>
+        <v>1.046881253275848</v>
       </c>
       <c r="K17">
-        <v>1.011920524678167</v>
+        <v>1.048545387500966</v>
       </c>
       <c r="L17">
-        <v>0.9954685383401808</v>
+        <v>1.042387564611167</v>
       </c>
       <c r="M17">
-        <v>1.008638485536208</v>
+        <v>1.056089631716147</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9728591465882394</v>
+        <v>1.04109648285863</v>
       </c>
       <c r="D18">
-        <v>0.9995282228525636</v>
+        <v>1.045492954310586</v>
       </c>
       <c r="E18">
-        <v>0.9829194440121</v>
+        <v>1.039347973572571</v>
       </c>
       <c r="F18">
-        <v>0.9964374344740092</v>
+        <v>1.053115208189174</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037621333184428</v>
+        <v>1.037782207202127</v>
       </c>
       <c r="J18">
-        <v>1.000988222237604</v>
+        <v>1.047165625310369</v>
       </c>
       <c r="K18">
-        <v>1.013355104756592</v>
+        <v>1.04878456865529</v>
       </c>
       <c r="L18">
-        <v>0.997039670681701</v>
+        <v>1.042660435218413</v>
       </c>
       <c r="M18">
-        <v>1.010317947103508</v>
+        <v>1.056381334549296</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9735896646146182</v>
+        <v>1.041220972727472</v>
       </c>
       <c r="D19">
-        <v>1.000088092409495</v>
+        <v>1.045588937502713</v>
       </c>
       <c r="E19">
-        <v>0.9835285279141784</v>
+        <v>1.039455590501554</v>
       </c>
       <c r="F19">
-        <v>0.9970821807371983</v>
+        <v>1.053229044459483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037869822151707</v>
+        <v>1.037814486896561</v>
       </c>
       <c r="J19">
-        <v>1.001548229489746</v>
+        <v>1.047262540702198</v>
       </c>
       <c r="K19">
-        <v>1.01384077017094</v>
+        <v>1.048866071506495</v>
       </c>
       <c r="L19">
-        <v>0.997571662310715</v>
+        <v>1.042753432905748</v>
       </c>
       <c r="M19">
-        <v>1.010886655330609</v>
+        <v>1.056480752861326</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9703023311929396</v>
+        <v>1.040664056985427</v>
       </c>
       <c r="D20">
-        <v>0.9975692395310291</v>
+        <v>1.045159516982542</v>
       </c>
       <c r="E20">
-        <v>0.9807884607794819</v>
+        <v>1.038974168090296</v>
       </c>
       <c r="F20">
-        <v>0.9941817290970844</v>
+        <v>1.052719804052167</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036750481990858</v>
+        <v>1.037669919315727</v>
       </c>
       <c r="J20">
-        <v>0.9990280767939324</v>
+        <v>1.046828922275315</v>
       </c>
       <c r="K20">
-        <v>1.011654966019266</v>
+        <v>1.048501367316059</v>
       </c>
       <c r="L20">
-        <v>0.9951777485005554</v>
+        <v>1.042337351106391</v>
       </c>
       <c r="M20">
-        <v>1.008327663173407</v>
+        <v>1.056035953841832</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9592369785081069</v>
+        <v>1.038850475495543</v>
       </c>
       <c r="D21">
-        <v>0.989101953049452</v>
+        <v>1.043760567788421</v>
       </c>
       <c r="E21">
-        <v>0.9715808429805124</v>
+        <v>1.037406623140203</v>
       </c>
       <c r="F21">
-        <v>0.984436111514902</v>
+        <v>1.051061754998369</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03296290909321</v>
+        <v>1.037196299223431</v>
       </c>
       <c r="J21">
-        <v>0.9905436936698626</v>
+        <v>1.045415813981646</v>
       </c>
       <c r="K21">
-        <v>1.004292776126211</v>
+        <v>1.047312061582468</v>
       </c>
       <c r="L21">
-        <v>0.9871213971465579</v>
+        <v>1.040981534225902</v>
       </c>
       <c r="M21">
-        <v>0.9997184701070122</v>
+        <v>1.054586726559712</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9519610029035804</v>
+        <v>1.037707849105031</v>
       </c>
       <c r="D22">
-        <v>0.9835447406041573</v>
+        <v>1.042878758857782</v>
       </c>
       <c r="E22">
-        <v>0.9655398786740762</v>
+        <v>1.036419163366944</v>
       </c>
       <c r="F22">
-        <v>0.9780430148344357</v>
+        <v>1.050017340280795</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030457902417264</v>
+        <v>1.036895725334611</v>
       </c>
       <c r="J22">
-        <v>0.9849646987531088</v>
+        <v>1.044524705745158</v>
       </c>
       <c r="K22">
-        <v>0.9994493826543331</v>
+        <v>1.046561487311232</v>
       </c>
       <c r="L22">
-        <v>0.9818263662702201</v>
+        <v>1.040126662976729</v>
       </c>
       <c r="M22">
-        <v>0.994062364125388</v>
+        <v>1.053673086547199</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.955850382762645</v>
+        <v>1.03831380419213</v>
       </c>
       <c r="D23">
-        <v>0.9865142674410846</v>
+        <v>1.043346436859717</v>
       </c>
       <c r="E23">
-        <v>0.9687677290288785</v>
+        <v>1.036942815921071</v>
       </c>
       <c r="F23">
-        <v>0.981458933221888</v>
+        <v>1.050571190701788</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031798254002076</v>
+        <v>1.037055330867217</v>
       </c>
       <c r="J23">
-        <v>0.9879469013590292</v>
+        <v>1.044997351432845</v>
       </c>
       <c r="K23">
-        <v>1.002038567937973</v>
+        <v>1.046959649810418</v>
       </c>
       <c r="L23">
-        <v>0.9846565332312347</v>
+        <v>1.040580078158641</v>
       </c>
       <c r="M23">
-        <v>0.9970852981015923</v>
+        <v>1.054157659836257</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9704828646240856</v>
+        <v>1.040694422858712</v>
       </c>
       <c r="D24">
-        <v>0.9977075316942537</v>
+        <v>1.045182933267957</v>
       </c>
       <c r="E24">
-        <v>0.9809388851347814</v>
+        <v>1.03900041696381</v>
       </c>
       <c r="F24">
-        <v>0.9943409549822929</v>
+        <v>1.052747569389288</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036812028710888</v>
+        <v>1.03767781257775</v>
       </c>
       <c r="J24">
-        <v>0.9991664856426313</v>
+        <v>1.046852569283527</v>
       </c>
       <c r="K24">
-        <v>1.011775025604984</v>
+        <v>1.048521259089533</v>
       </c>
       <c r="L24">
-        <v>0.9953092133833595</v>
+        <v>1.042360041236567</v>
       </c>
       <c r="M24">
-        <v>1.008468184004868</v>
+        <v>1.056060209383981</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9862543804911177</v>
+        <v>1.043447131796739</v>
       </c>
       <c r="D25">
-        <v>1.009804766882526</v>
+        <v>1.047304620475771</v>
       </c>
       <c r="E25">
-        <v>0.9941040770016963</v>
+        <v>1.041380257306682</v>
       </c>
       <c r="F25">
-        <v>1.008277880771079</v>
+        <v>1.05526503043806</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042152448873329</v>
+        <v>1.03838813362123</v>
       </c>
       <c r="J25">
-        <v>1.011253362858733</v>
+        <v>1.048994285846524</v>
       </c>
       <c r="K25">
-        <v>1.02225275956838</v>
+        <v>1.050321427589336</v>
       </c>
       <c r="L25">
-        <v>1.006794614330394</v>
+        <v>1.044415352081281</v>
       </c>
       <c r="M25">
-        <v>1.020749038162861</v>
+        <v>1.058257617455097</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_207/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04563514837453</v>
+        <v>0.9980212461926333</v>
       </c>
       <c r="D2">
-        <v>1.048989521873806</v>
+        <v>1.018847679150239</v>
       </c>
       <c r="E2">
-        <v>1.043272374191925</v>
+        <v>1.003956376406818</v>
       </c>
       <c r="F2">
-        <v>1.05726675085957</v>
+        <v>1.018709411282452</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038945101223042</v>
+        <v>1.046081616010043</v>
       </c>
       <c r="J2">
-        <v>1.05069383003779</v>
+        <v>1.020261302955288</v>
       </c>
       <c r="K2">
-        <v>1.051747829631309</v>
+        <v>1.030050535101954</v>
       </c>
       <c r="L2">
-        <v>1.046046707304126</v>
+        <v>1.01536086643886</v>
       </c>
       <c r="M2">
-        <v>1.060002189996293</v>
+        <v>1.029914105396653</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047219679848313</v>
+        <v>1.006159466587862</v>
       </c>
       <c r="D3">
-        <v>1.050208786366259</v>
+        <v>1.025108429825666</v>
       </c>
       <c r="E3">
-        <v>1.044642879433515</v>
+        <v>1.010784838605287</v>
       </c>
       <c r="F3">
-        <v>1.058716748892199</v>
+        <v>1.025940086055578</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039344011464254</v>
+        <v>1.048765297839419</v>
       </c>
       <c r="J3">
-        <v>1.051922970927945</v>
+        <v>1.026483615178827</v>
       </c>
       <c r="K3">
-        <v>1.052778198188464</v>
+        <v>1.03542981524616</v>
       </c>
       <c r="L3">
-        <v>1.047226751078704</v>
+        <v>1.021281560384175</v>
       </c>
       <c r="M3">
-        <v>1.061264374463785</v>
+        <v>1.036251477726295</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048243119561685</v>
+        <v>1.011256166779455</v>
       </c>
       <c r="D4">
-        <v>1.050995869573815</v>
+        <v>1.029031315110282</v>
       </c>
       <c r="E4">
-        <v>1.045528195622349</v>
+        <v>1.01506711969206</v>
       </c>
       <c r="F4">
-        <v>1.059653462628366</v>
+        <v>1.030474890246529</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039599608590579</v>
+        <v>1.050429790837301</v>
       </c>
       <c r="J4">
-        <v>1.0527161008738</v>
+        <v>1.030376256490921</v>
       </c>
       <c r="K4">
-        <v>1.053442493544437</v>
+        <v>1.038791542501536</v>
       </c>
       <c r="L4">
-        <v>1.04798830091633</v>
+        <v>1.024987036345054</v>
       </c>
       <c r="M4">
-        <v>1.062079045932165</v>
+        <v>1.040218913424488</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048672938301473</v>
+        <v>1.013360744756761</v>
       </c>
       <c r="D5">
-        <v>1.05132631978107</v>
+        <v>1.030651529161661</v>
       </c>
       <c r="E5">
-        <v>1.04590003263182</v>
+        <v>1.016836691951495</v>
       </c>
       <c r="F5">
-        <v>1.060046897896429</v>
+        <v>1.032348873070694</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039706459944936</v>
+        <v>1.051113138106952</v>
       </c>
       <c r="J5">
-        <v>1.053049011617624</v>
+        <v>1.031982556788911</v>
       </c>
       <c r="K5">
-        <v>1.053721189366414</v>
+        <v>1.040177883379931</v>
       </c>
       <c r="L5">
-        <v>1.04830798026662</v>
+        <v>1.026516457963784</v>
       </c>
       <c r="M5">
-        <v>1.06242105085341</v>
+        <v>1.041856726159346</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048745081507456</v>
+        <v>1.013711946988094</v>
       </c>
       <c r="D6">
-        <v>1.051381778230288</v>
+        <v>1.030921919127786</v>
       </c>
       <c r="E6">
-        <v>1.045962445395373</v>
+        <v>1.017132062966231</v>
       </c>
       <c r="F6">
-        <v>1.060112936565062</v>
+        <v>1.032661675239862</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039724365552408</v>
+        <v>1.051226936056478</v>
       </c>
       <c r="J6">
-        <v>1.053104878445934</v>
+        <v>1.032250542601449</v>
       </c>
       <c r="K6">
-        <v>1.053767950134936</v>
+        <v>1.040409119883606</v>
       </c>
       <c r="L6">
-        <v>1.048361628107236</v>
+        <v>1.026771638387577</v>
       </c>
       <c r="M6">
-        <v>1.062478446863439</v>
+        <v>1.042130006743823</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048248864519481</v>
+        <v>1.011284434789931</v>
       </c>
       <c r="D7">
-        <v>1.051000286785134</v>
+        <v>1.029053076132618</v>
       </c>
       <c r="E7">
-        <v>1.045533165492534</v>
+        <v>1.015090883035662</v>
       </c>
       <c r="F7">
-        <v>1.059658721131713</v>
+        <v>1.030500055478248</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039601038704505</v>
+        <v>1.050438985167183</v>
       </c>
       <c r="J7">
-        <v>1.052720551282191</v>
+        <v>1.03039783620141</v>
       </c>
       <c r="K7">
-        <v>1.053446219739639</v>
+        <v>1.038810170703803</v>
       </c>
       <c r="L7">
-        <v>1.047992574350272</v>
+        <v>1.025007581841588</v>
       </c>
       <c r="M7">
-        <v>1.062083617707869</v>
+        <v>1.040240913950841</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046171038684981</v>
+        <v>1.000808193610521</v>
       </c>
       <c r="D8">
-        <v>1.049401967457021</v>
+        <v>1.020991176822308</v>
       </c>
       <c r="E8">
-        <v>1.043735856296065</v>
+        <v>1.00629348995502</v>
       </c>
       <c r="F8">
-        <v>1.057757106253327</v>
+        <v>1.021184120285144</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039080439140628</v>
+        <v>1.047004022400284</v>
       </c>
       <c r="J8">
-        <v>1.051109685113581</v>
+        <v>1.022392977837564</v>
       </c>
       <c r="K8">
-        <v>1.052096552556713</v>
+        <v>1.031894122539401</v>
       </c>
       <c r="L8">
-        <v>1.046445930423233</v>
+        <v>1.017388881462816</v>
       </c>
       <c r="M8">
-        <v>1.060429179023087</v>
+        <v>1.032084585745078</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042494985065504</v>
+        <v>0.9809276718394441</v>
       </c>
       <c r="D9">
-        <v>1.046570976444088</v>
+        <v>1.00571569415815</v>
       </c>
       <c r="E9">
-        <v>1.040557007290882</v>
+        <v>0.9896523877219239</v>
       </c>
       <c r="F9">
-        <v>1.054394144293653</v>
+        <v>1.003564931482069</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038143620304707</v>
+        <v>1.040357320019683</v>
       </c>
       <c r="J9">
-        <v>1.048253913603922</v>
+        <v>1.007172378407167</v>
       </c>
       <c r="K9">
-        <v>1.049699451605135</v>
+        <v>1.018716713911598</v>
       </c>
       <c r="L9">
-        <v>1.04370479083482</v>
+        <v>1.002915608749154</v>
       </c>
       <c r="M9">
-        <v>1.057497862877584</v>
+        <v>1.016600433740904</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040033825574569</v>
+        <v>0.9665210245970426</v>
       </c>
       <c r="D10">
-        <v>1.044673467546509</v>
+        <v>0.9946737318953056</v>
       </c>
       <c r="E10">
-        <v>1.038429402148725</v>
+        <v>0.9776392588546626</v>
       </c>
       <c r="F10">
-        <v>1.052143572707678</v>
+        <v>0.9908483519518114</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037505821568434</v>
+        <v>1.035459458541977</v>
       </c>
       <c r="J10">
-        <v>1.046338036825168</v>
+        <v>0.9961289218030399</v>
       </c>
       <c r="K10">
-        <v>1.048088360404429</v>
+        <v>1.009139824314082</v>
       </c>
       <c r="L10">
-        <v>1.041866343152299</v>
+        <v>0.9924243311353196</v>
       </c>
       <c r="M10">
-        <v>1.055532466712602</v>
+        <v>1.005384831834057</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038965501575169</v>
+        <v>0.9599559301516971</v>
       </c>
       <c r="D11">
-        <v>1.043849320354409</v>
+        <v>0.9896515377291172</v>
       </c>
       <c r="E11">
-        <v>1.037506035510072</v>
+        <v>0.972178348455227</v>
       </c>
       <c r="F11">
-        <v>1.051166903744555</v>
+        <v>0.9850684831454352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037226465435273</v>
+        <v>1.033209850681884</v>
       </c>
       <c r="J11">
-        <v>1.045505486591482</v>
+        <v>0.9910949794423901</v>
       </c>
       <c r="K11">
-        <v>1.047387567017713</v>
+        <v>1.004771285698266</v>
       </c>
       <c r="L11">
-        <v>1.0410675649056</v>
+        <v>0.9876447303881877</v>
       </c>
       <c r="M11">
-        <v>1.054678676948245</v>
+        <v>1.000277588561039</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038568272322506</v>
+        <v>0.9574628441208538</v>
       </c>
       <c r="D12">
-        <v>1.043542809940865</v>
+        <v>0.9877461121436653</v>
       </c>
       <c r="E12">
-        <v>1.037162731520866</v>
+        <v>0.97010684640647</v>
       </c>
       <c r="F12">
-        <v>1.050803792036693</v>
+        <v>0.9828761312040685</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037122218179207</v>
+        <v>1.032353074265607</v>
       </c>
       <c r="J12">
-        <v>1.045195786394257</v>
+        <v>0.9891833067807329</v>
       </c>
       <c r="K12">
-        <v>1.047126776011954</v>
+        <v>1.00311190403336</v>
       </c>
       <c r="L12">
-        <v>1.040770446352184</v>
+        <v>0.985830070443206</v>
       </c>
       <c r="M12">
-        <v>1.054361118131176</v>
+        <v>0.9983389188890688</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038653497913347</v>
+        <v>0.9580001825180993</v>
       </c>
       <c r="D13">
-        <v>1.043608575034437</v>
+        <v>0.9881567072268558</v>
       </c>
       <c r="E13">
-        <v>1.037236386223023</v>
+        <v>0.970553213380578</v>
       </c>
       <c r="F13">
-        <v>1.05088169596752</v>
+        <v>0.983348532179889</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037144601434201</v>
+        <v>1.032537846046968</v>
       </c>
       <c r="J13">
-        <v>1.045262238823523</v>
+        <v>0.9895953309914625</v>
       </c>
       <c r="K13">
-        <v>1.04718273864014</v>
+        <v>1.003469568706062</v>
       </c>
       <c r="L13">
-        <v>1.040834198284154</v>
+        <v>0.9862211657765635</v>
       </c>
       <c r="M13">
-        <v>1.054429254868613</v>
+        <v>0.9987567228119596</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038932674834493</v>
+        <v>0.9597509972602382</v>
       </c>
       <c r="D14">
-        <v>1.043823992016807</v>
+        <v>0.9894948735757584</v>
       </c>
       <c r="E14">
-        <v>1.037477664567828</v>
+        <v>0.9720080224111463</v>
       </c>
       <c r="F14">
-        <v>1.051136895672603</v>
+        <v>0.9848882174209727</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037217858176168</v>
+        <v>1.033139472689189</v>
       </c>
       <c r="J14">
-        <v>1.045479895988771</v>
+        <v>0.9909378387070805</v>
       </c>
       <c r="K14">
-        <v>1.047366019891234</v>
+        <v>1.0046348911529</v>
       </c>
       <c r="L14">
-        <v>1.041043013543421</v>
+        <v>0.9874955553811758</v>
       </c>
       <c r="M14">
-        <v>1.054652436122184</v>
+        <v>1.000118211256427</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039104630779596</v>
+        <v>0.9608223320760507</v>
       </c>
       <c r="D15">
-        <v>1.043956666216998</v>
+        <v>0.9903139449816857</v>
       </c>
       <c r="E15">
-        <v>1.037626280846235</v>
+        <v>0.972898535561334</v>
       </c>
       <c r="F15">
-        <v>1.05129408817739</v>
+        <v>0.9858307039197519</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037262930106415</v>
+        <v>1.033507290100007</v>
       </c>
       <c r="J15">
-        <v>1.045613941330965</v>
+        <v>0.9917593283151355</v>
       </c>
       <c r="K15">
-        <v>1.047478881012615</v>
+        <v>1.005347909403189</v>
       </c>
       <c r="L15">
-        <v>1.041171616042078</v>
+        <v>0.9882754197164447</v>
       </c>
       <c r="M15">
-        <v>1.054789889110964</v>
+        <v>1.000951427516305</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040104670405722</v>
+        <v>0.9669493979495581</v>
       </c>
       <c r="D16">
-        <v>1.044728109860073</v>
+        <v>0.9950016535476065</v>
       </c>
       <c r="E16">
-        <v>1.038490637943634</v>
+        <v>0.9779958818816938</v>
       </c>
       <c r="F16">
-        <v>1.052208344775701</v>
+        <v>0.9912258228257453</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037524294117334</v>
+        <v>1.035605894567884</v>
       </c>
       <c r="J16">
-        <v>1.046393227265234</v>
+        <v>0.9964573717235532</v>
       </c>
       <c r="K16">
-        <v>1.048134802124072</v>
+        <v>1.009424799912391</v>
       </c>
       <c r="L16">
-        <v>1.041919297451355</v>
+        <v>0.9927362427641426</v>
       </c>
       <c r="M16">
-        <v>1.055589071040923</v>
+        <v>1.005718176134714</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040731257661335</v>
+        <v>0.9707016558083428</v>
       </c>
       <c r="D17">
-        <v>1.045211337668915</v>
+        <v>0.9978751360419522</v>
       </c>
       <c r="E17">
-        <v>1.039032257821976</v>
+        <v>0.9811211951746082</v>
       </c>
       <c r="F17">
-        <v>1.052781249816369</v>
+        <v>0.9945339327387405</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037687385712982</v>
+        <v>1.036886606644036</v>
       </c>
       <c r="J17">
-        <v>1.046881253275848</v>
+        <v>0.9993342243625353</v>
       </c>
       <c r="K17">
-        <v>1.048545387500966</v>
+        <v>1.011920524678167</v>
       </c>
       <c r="L17">
-        <v>1.042387564611167</v>
+        <v>0.9954685383401807</v>
       </c>
       <c r="M17">
-        <v>1.056089631716147</v>
+        <v>1.008638485536208</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04109648285863</v>
+        <v>0.972859146588239</v>
       </c>
       <c r="D18">
-        <v>1.045492954310586</v>
+        <v>0.9995282228525632</v>
       </c>
       <c r="E18">
-        <v>1.039347973572571</v>
+        <v>0.9829194440120999</v>
       </c>
       <c r="F18">
-        <v>1.053115208189174</v>
+        <v>0.9964374344740088</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037782207202127</v>
+        <v>1.037621333184427</v>
       </c>
       <c r="J18">
-        <v>1.047165625310369</v>
+        <v>1.000988222237604</v>
       </c>
       <c r="K18">
-        <v>1.04878456865529</v>
+        <v>1.013355104756591</v>
       </c>
       <c r="L18">
-        <v>1.042660435218413</v>
+        <v>0.9970396706817007</v>
       </c>
       <c r="M18">
-        <v>1.056381334549296</v>
+        <v>1.010317947103508</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041220972727472</v>
+        <v>0.9735896646146176</v>
       </c>
       <c r="D19">
-        <v>1.045588937502713</v>
+        <v>1.000088092409495</v>
       </c>
       <c r="E19">
-        <v>1.039455590501554</v>
+        <v>0.9835285279141781</v>
       </c>
       <c r="F19">
-        <v>1.053229044459483</v>
+        <v>0.9970821807371976</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037814486896561</v>
+        <v>1.037869822151707</v>
       </c>
       <c r="J19">
-        <v>1.047262540702198</v>
+        <v>1.001548229489746</v>
       </c>
       <c r="K19">
-        <v>1.048866071506495</v>
+        <v>1.013840770170939</v>
       </c>
       <c r="L19">
-        <v>1.042753432905748</v>
+        <v>0.9975716623107146</v>
       </c>
       <c r="M19">
-        <v>1.056480752861326</v>
+        <v>1.010886655330608</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040664056985427</v>
+        <v>0.9703023311929411</v>
       </c>
       <c r="D20">
-        <v>1.045159516982542</v>
+        <v>0.9975692395310303</v>
       </c>
       <c r="E20">
-        <v>1.038974168090296</v>
+        <v>0.9807884607794832</v>
       </c>
       <c r="F20">
-        <v>1.052719804052167</v>
+        <v>0.9941817290970856</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037669919315727</v>
+        <v>1.036750481990859</v>
       </c>
       <c r="J20">
-        <v>1.046828922275315</v>
+        <v>0.9990280767939336</v>
       </c>
       <c r="K20">
-        <v>1.048501367316059</v>
+        <v>1.011654966019267</v>
       </c>
       <c r="L20">
-        <v>1.042337351106391</v>
+        <v>0.9951777485005564</v>
       </c>
       <c r="M20">
-        <v>1.056035953841832</v>
+        <v>1.008327663173408</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038850475495543</v>
+        <v>0.9592369785081076</v>
       </c>
       <c r="D21">
-        <v>1.043760567788421</v>
+        <v>0.9891019530494529</v>
       </c>
       <c r="E21">
-        <v>1.037406623140203</v>
+        <v>0.9715808429805133</v>
       </c>
       <c r="F21">
-        <v>1.051061754998369</v>
+        <v>0.9844361115149028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037196299223431</v>
+        <v>1.03296290909321</v>
       </c>
       <c r="J21">
-        <v>1.045415813981646</v>
+        <v>0.9905436936698634</v>
       </c>
       <c r="K21">
-        <v>1.047312061582468</v>
+        <v>1.004292776126212</v>
       </c>
       <c r="L21">
-        <v>1.040981534225902</v>
+        <v>0.9871213971465589</v>
       </c>
       <c r="M21">
-        <v>1.054586726559712</v>
+        <v>0.9997184701070129</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037707849105031</v>
+        <v>0.9519610029035808</v>
       </c>
       <c r="D22">
-        <v>1.042878758857782</v>
+        <v>0.9835447406041573</v>
       </c>
       <c r="E22">
-        <v>1.036419163366944</v>
+        <v>0.9655398786740761</v>
       </c>
       <c r="F22">
-        <v>1.050017340280795</v>
+        <v>0.9780430148344359</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036895725334611</v>
+        <v>1.030457902417263</v>
       </c>
       <c r="J22">
-        <v>1.044524705745158</v>
+        <v>0.9849646987531087</v>
       </c>
       <c r="K22">
-        <v>1.046561487311232</v>
+        <v>0.999449382654333</v>
       </c>
       <c r="L22">
-        <v>1.040126662976729</v>
+        <v>0.98182636627022</v>
       </c>
       <c r="M22">
-        <v>1.053673086547199</v>
+        <v>0.9940623641253881</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03831380419213</v>
+        <v>0.9558503827626437</v>
       </c>
       <c r="D23">
-        <v>1.043346436859717</v>
+        <v>0.9865142674410836</v>
       </c>
       <c r="E23">
-        <v>1.036942815921071</v>
+        <v>0.9687677290288774</v>
       </c>
       <c r="F23">
-        <v>1.050571190701788</v>
+        <v>0.981458933221887</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037055330867217</v>
+        <v>1.031798254002076</v>
       </c>
       <c r="J23">
-        <v>1.044997351432845</v>
+        <v>0.987946901359028</v>
       </c>
       <c r="K23">
-        <v>1.046959649810418</v>
+        <v>1.002038567937972</v>
       </c>
       <c r="L23">
-        <v>1.040580078158641</v>
+        <v>0.9846565332312338</v>
       </c>
       <c r="M23">
-        <v>1.054157659836257</v>
+        <v>0.9970852981015913</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040694422858712</v>
+        <v>0.9704828646240837</v>
       </c>
       <c r="D24">
-        <v>1.045182933267957</v>
+        <v>0.9977075316942522</v>
       </c>
       <c r="E24">
-        <v>1.03900041696381</v>
+        <v>0.9809388851347797</v>
       </c>
       <c r="F24">
-        <v>1.052747569389288</v>
+        <v>0.9943409549822917</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03767781257775</v>
+        <v>1.036812028710887</v>
       </c>
       <c r="J24">
-        <v>1.046852569283527</v>
+        <v>0.9991664856426296</v>
       </c>
       <c r="K24">
-        <v>1.048521259089533</v>
+        <v>1.011775025604983</v>
       </c>
       <c r="L24">
-        <v>1.042360041236567</v>
+        <v>0.995309213383358</v>
       </c>
       <c r="M24">
-        <v>1.056060209383981</v>
+        <v>1.008468184004867</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043447131796739</v>
+        <v>0.9862543804911178</v>
       </c>
       <c r="D25">
-        <v>1.047304620475771</v>
+        <v>1.009804766882526</v>
       </c>
       <c r="E25">
-        <v>1.041380257306682</v>
+        <v>0.9941040770016961</v>
       </c>
       <c r="F25">
-        <v>1.05526503043806</v>
+        <v>1.00827788077108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03838813362123</v>
+        <v>1.042152448873329</v>
       </c>
       <c r="J25">
-        <v>1.048994285846524</v>
+        <v>1.011253362858733</v>
       </c>
       <c r="K25">
-        <v>1.050321427589336</v>
+        <v>1.022252759568381</v>
       </c>
       <c r="L25">
-        <v>1.044415352081281</v>
+        <v>1.006794614330393</v>
       </c>
       <c r="M25">
-        <v>1.058257617455097</v>
+        <v>1.020749038162861</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
